--- a/shop_emotion/신제품보만 AF1270W_negative.xlsx
+++ b/shop_emotion/신제품보만 AF1270W_negative.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>확률</t>
+          <t>평점</t>
         </is>
       </c>
     </row>
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>96.22117578983307</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -468,7 +468,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>98.43710381537676</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>97.8046515956521</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -494,7 +494,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>94.1021304577589</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
